--- a/TRIMAZKON/temp/saved_addresses_2.xlsx
+++ b/TRIMAZKON/temp/saved_addresses_2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ip_address_list" sheetId="1" state="visible" r:id="rId1"/>
@@ -62,8 +62,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -404,26 +404,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col width="27.28515625" customWidth="1" min="1" max="1"/>
+    <col width="30.7109375" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="95.7109375" customWidth="1" min="4" max="4"/>
+    <col width="11.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>440_Austin</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>192.168.1.241</t>
+          <t>10.96.205.240</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -433,33 +437,27 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>poznggv
-f
-fhk
-hvj
-hg
-guk
-f
-f
-f
-f
-jjjf
-f</t>
+          <t>FortiClient Austin: 
+pass:
+1Pm#J@PFIkzM&amp;Q@i 
+UVt1@Ex2p78kxp30atD7we@!qGK
+FH-2050-20
+10.96.205.80</t>
         </is>
       </c>
       <c r="E1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>497_Edcha</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>192.168.14.241</t>
+          <t>172.26.7.240</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -469,25 +467,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>f
-f
-f
-f</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
+          <t>FortiClient Edcha Ex2p78kxp30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>503_Witte</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.9.250.241</t>
+          <t>192.168.0.240</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,8 +490,254 @@
           <t>255.255.255.0</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PC:	10.96.205.175
+NAS:	10.96.205.166
+FH:	10.96.205.154
+	10.96.205.267
+-----------------------------------------
+user:JHV_Vision, omron 
+Pass:*Jhv2708
+---------------------------------------
+FortiClient Austin: 
+Pass:
+1Pm#J@PFIkzM&amp;Q@i 
+UVt1@Ex2p78kxp30atD7we@!qGK</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>511_Teleflex</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>192.168.1.242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teleflex </t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>514_Teleflex</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>192.168.14.240</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PC:192.168.14.240
+CAM: 192.168.14.???
+NAS:192.168.14.245
+*******************************
+user: Vision
+pass: *Jhv2708</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>518_Valeo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>192.168.208.242</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>529_Witte</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>192.168.0.240</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kamera VS-S160MX :192.168.0.186</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Domaci Wifi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>192.168.1.131</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>518_Valeo II</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>192.168.1.243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>474 B_Austin</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10.96.205.175</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PC:	10.96.205.175
+NAS:	10.96.205.166
+FH:	10.96.205.154
+	10.96.205.245
+-----------------------------------------
+user:JHV_Vision, omron 
+Pass:*Jhv2708
+---------------------------------------
+FortiClient Austin: 
+Pass:
+1Pm#J@PFIkzM&amp;Q@i 
+UVt1@Ex2p78kxp30atD7we@!qGK</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>527_Teijin</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10.101.28.176</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>XG-X2900:		10.101.28.175
+OP:		10.101.28.117</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>515_ZF Stara Boleslav</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10.9.250.240</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NAS - 10.9.250.100
+User:spravce Pass:Jhv*2708 
+User:jhvadmin Pass:jhvadm1n &gt;&gt;&gt; na portu 8080. 
+123TPV456</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -510,26 +751,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:E3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.5546875" customWidth="1" min="3" max="3"/>
+    <col width="15.5703125" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>518_Valeo II</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>192.168.1.241</t>
+          <t>192.168.1.243</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -537,15 +778,99 @@
           <t>255.255.255.0</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>poznggv
-df
-df
-df</t>
-        </is>
-      </c>
       <c r="E1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>514_Teleflex</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>192.168.14.240</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PC:192.168.14.240
+CAM: 192.168.14.???
+NAS:192.168.14.245
+*******************************
+user: Vision
+pass: *Jhv2708</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>474 B_Austin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10.96.205.175</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PC:	10.96.205.175
+NAS:	10.96.205.166
+FH:	10.96.205.154
+	10.96.205.245
+-----------------------------------------
+user:JHV_Vision, omron 
+Pass:*Jhv2708
+---------------------------------------
+FortiClient Austin: 
+Pass:
+1Pm#J@PFIkzM&amp;Q@i 
+UVt1@Ex2p78kxp30atD7we@!qGK</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>527_Teijin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10.101.28.176</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>255.255.255.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>XG-X2900:		10.101.28.175
+OP:		10.101.28.117</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,95 +888,90 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8.44140625" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" customWidth="1" min="2" max="2"/>
     <col width="32" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>518-2</t>
+          <t>514_Teleflex</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>\\192.168.208.200</t>
+          <t>\\192.168.14.245\Data\Kamery</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>jhv_vision</t>
+          <t>Vision</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Jhv*2708</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>první sít, ixon</t>
+          <t>*Jhv2708</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>514-2</t>
+          <t>515_ZF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>\\192.168.14.245\Data\Kamery</t>
+          <t>\\10.9.250.100\08_Project_ZF_515\kamery</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Vision</t>
+          <t>jhvadmin</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>*Jhv2708</t>
+          <t>jhvadm1n</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bez jmena a hesla</t>
+          <t>Domaci Nas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>\\192.168.000.000\</t>
+          <t>\\192.168.1.20\Data</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>518_Valeo II</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -676,67 +996,77 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>druhá síť Valeo
-fg
-f
-f</t>
+          <t>Druha sít, ixon</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>518_Valeo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>\\10.9.250.100\</t>
+          <t>\\192.168.208.200\10_vision</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>spravce</t>
+          <t>jhv_vision</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Jhv*2708</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>první sít, ixon
+\\192.168.208.200\10_vision</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>515-2</t>
+          <t>474_B Austin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Z</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>\\10.9.250.100\</t>
+          <t>\\10.96.205.166\DATA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>jhvadmin</t>
+          <t>jhv_vision</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>jhvadm1n</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>*Jhv2708</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.96.205.166	
+VisionNas_474B	
+						user:JHV_Vision, omron 
+Pass:*Jhv2708</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -755,14 +1085,14 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="48.5546875" customWidth="1" min="1" max="1"/>
-    <col width="71.6640625" customWidth="1" min="2" max="2"/>
+    <col width="48.5703125" customWidth="1" min="1" max="1"/>
+    <col width="71.7109375" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -772,7 +1102,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -781,11 +1111,6 @@
           <t>list názvů rozhraní</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ethernet,Ethernet 3,WiFi,</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -804,7 +1129,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -820,11 +1145,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aktualizovat statusy disku (default)</t>
+          <t>aktualizovat statusy disků při vstupu do okna s disky (default)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">

--- a/TRIMAZKON/temp/saved_addresses_2.xlsx
+++ b/TRIMAZKON/temp/saved_addresses_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub.hlavacek.local\Desktop\JHV\Work\TRIMAZKON\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC3EA3-24CB-40FE-9588-C79D5754DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ABF336-3F72-49D1-B98D-24E3BD32D7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="3930" windowWidth="28695" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ip_address_list" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>440_Austin</t>
   </si>
@@ -586,7 +586,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,10 +800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,6 +873,23 @@
         <v>29</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
@@ -1013,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
